--- a/Results/RFE/Speech/noMFCCs/speech_noMFCCs_rfe.xlsx
+++ b/Results/RFE/Speech/noMFCCs/speech_noMFCCs_rfe.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Validation</t>
+          <t>F1 train</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         <v>0.7</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8447058823529412</v>
+        <v>0.9620253164556962</v>
       </c>
     </row>
     <row r="3">
@@ -617,7 +617,7 @@
         <v>0.7</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7380083693396386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -672,7 +672,7 @@
         <v>0.7</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7885520361990951</v>
+        <v>0.987012987012987</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>0.7</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8272276467942102</v>
+        <v>0.810126582278481</v>
       </c>
     </row>
     <row r="6">
@@ -782,7 +782,7 @@
         <v>0.7</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6992382918079512</v>
+        <v>0.6823529411764706</v>
       </c>
     </row>
     <row r="7">
@@ -837,7 +837,7 @@
         <v>0.7</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9616666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +892,7 @@
         <v>0.7</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8047985347985348</v>
+        <v>0.987012987012987</v>
       </c>
     </row>
     <row r="9">
@@ -947,7 +947,7 @@
         <v>0.7</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8029971988795518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1002,7 +1002,7 @@
         <v>0.7</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8186080586080587</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="11">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (16,), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (64, 32), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1027,37 +1027,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>0.6</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L11" t="n">
-        <v>0.75</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="O11" t="n">
-        <v>0.675934065934066</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -1112,7 +1112,7 @@
         <v>0.7</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9483333333333335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1167,7 +1167,7 @@
         <v>0.5</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8073981900452487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1222,7 +1222,7 @@
         <v>0.6</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8433333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1277,7 +1277,7 @@
         <v>0.5</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8047985347985348</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="16">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (32,), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (64, 32), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
@@ -1311,28 +1311,28 @@
         <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L16" t="n">
-        <v>0.625</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="M16" t="n">
         <v>0.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7063725490196078</v>
+        <v>0.7848101265822784</v>
       </c>
     </row>
   </sheetData>
